--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_ATVietNam_231122.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_ATVietNam_231122.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$L$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -99,30 +99,9 @@
     <t>Thiết bị đại lý trả về</t>
   </si>
   <si>
-    <t>Imei: WM21051100S0358/ 00BD000B6F ( Không kèm phụ kiện)</t>
-  </si>
-  <si>
-    <t>Imei: WM21051100S0324/ 00BD000B4C ( Không kèm phụ kiện)</t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi GSM, Imei: WM21051100S0902/ 00BD000A2B (Không kèm phụ kiện)</t>
-  </si>
-  <si>
-    <t>Imei: WM21051100S0971/ 00BD000D01 ( Không kèm phụ kiện)</t>
-  </si>
-  <si>
-    <t>Imei: VM21051100S0878/ 00BD000C6A ( Full phụ kiện)</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
-    <t>Imei: ZM21040101S0018/ 009901B923 ( Chưa có dây nguồn test nhập kho test lại sau)</t>
-  </si>
-  <si>
-    <t>RFID</t>
-  </si>
-  <si>
     <t>Đế chân (VNSH01)</t>
   </si>
   <si>
@@ -138,12 +117,6 @@
     <t>Anten GSM (VNSH01)</t>
   </si>
   <si>
-    <t>Cable kết nối RFID (VNSH01)</t>
-  </si>
-  <si>
-    <t>Vỏ hộp cũ dính nhiều băng dính xốp không vệ sinh được</t>
-  </si>
-  <si>
     <t>Ngày:  23 Tháng 11 Năm  2022</t>
   </si>
   <si>
@@ -154,6 +127,39 @@
   </si>
   <si>
     <t>TP. KTTH</t>
+  </si>
+  <si>
+    <t>RFID + Dây kết nối</t>
+  </si>
+  <si>
+    <t>Vỏ hộp cũ dính nhiều băng dính xốp không vệ sinh được ( 3 bộ RFID không dây kết nối)</t>
+  </si>
+  <si>
+    <t>Dây bị cắt</t>
+  </si>
+  <si>
+    <t>16(RFID) + 13(Dây kết nối)</t>
+  </si>
+  <si>
+    <t>Đã test lại, sử dụng bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GSM, Imei: WM21051100S0902/ 00BD000A2B (Không kèm phụ kiện +  không vỏ hộp)</t>
+  </si>
+  <si>
+    <t>Imei: WM21051100S0358/ 00BD000B6F (Không kèm phụ kiện +  không vỏ hộp)</t>
+  </si>
+  <si>
+    <t>Imei: WM21051100S0324/ 00BD000B4C (Không kèm phụ kiện + không vỏ hộp)</t>
+  </si>
+  <si>
+    <t>Imei: WM21051100S0971/ 00BD000D01 (Không kèm phụ kiện + không vỏ hộp)</t>
+  </si>
+  <si>
+    <t>Imei: VM21051100S0878/ 00BD000C6A (Đầy đủ phụ kiện + không vỏ hộp)</t>
+  </si>
+  <si>
+    <t>Imei: ZM21040101S0018/ 009901B923 (Chưa có dây nguồn test, nhập kho test lại sau, không có phụ kiện + không vỏ hộp)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -488,6 +494,69 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,65 +590,8 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -621,7 +633,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J9" sqref="J9:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,68 +1020,68 @@
     <col min="9" max="9" width="5.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="14" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="22" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="22" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="22" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1079,33 +1091,33 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="43" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="43"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1132,28 +1144,28 @@
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1162,325 +1174,329 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="28">
         <v>5</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="37" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>7</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="12">
+        <v>8</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>10</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>11</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="14">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>12</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="14">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>13</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>9</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="12">
-        <v>3</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>10</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="B20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="12">
-        <v>16</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="12">
-        <v>3</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26" t="s">
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="26"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="27"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -1505,54 +1521,41 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="25" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1560,62 +1563,12 @@
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J9:K14"/>
-    <mergeCell ref="J15:K21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
+  <mergeCells count="62">
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="J9:K15"/>
+    <mergeCell ref="J16:K20"/>
     <mergeCell ref="D1:J3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="B8:C8"/>
@@ -1628,13 +1581,59 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="1.2" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="108" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="105" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="11" man="1"/>
+    <brk id="15" min="3" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
